--- a/Docs/LAB03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/LAB03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10402"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69310EB-5841-E84E-835C-35333AC42BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD8F3E4-5F55-9C42-B27A-F693C620D846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2100" yWindow="-21600" windowWidth="36000" windowHeight="20060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -1457,63 +1457,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1536,9 +1539,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1565,14 +1565,53 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1598,9 +1637,6 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1639,42 +1675,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2095,8 +2095,8 @@
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="158" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2240,8 +2240,8 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+    <sheetView topLeftCell="H1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2264,18 +2264,18 @@
       <c r="I1" s="46"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="44" t="s">
@@ -2316,11 +2316,11 @@
       <c r="I8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="49" t="s">
+      <c r="Q8" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
       <c r="T8" s="31">
         <v>7</v>
       </c>
@@ -2329,19 +2329,19 @@
       <c r="B9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="I9" s="35"/>
-      <c r="Q9" s="49" t="s">
+      <c r="Q9" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
       <c r="T9" s="31">
         <v>7</v>
       </c>
@@ -2350,29 +2350,29 @@
       <c r="B10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="55"/>
-      <c r="Q10" s="49" t="s">
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
+      <c r="Q10" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="R10" s="49" t="s">
+      <c r="R10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="49"/>
+      <c r="S10" s="61"/>
       <c r="T10" s="31">
         <v>7</v>
       </c>
@@ -2381,58 +2381,58 @@
       <c r="B11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="58"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="58"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="58"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
       <c r="Q13" s="44" t="s">
         <v>26</v>
       </c>
@@ -2444,29 +2444,29 @@
       <c r="B14" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="58"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="58"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
       <c r="Q15" s="29" t="s">
         <v>27</v>
       </c>
@@ -2477,13 +2477,13 @@
       <c r="T15" s="62"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="58"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="57"/>
       <c r="Q16" s="32" t="s">
         <v>29</v>
       </c>
@@ -2494,13 +2494,13 @@
       <c r="T16" s="47"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="58"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="57"/>
       <c r="Q17" s="32" t="s">
         <v>30</v>
       </c>
@@ -2511,13 +2511,13 @@
       <c r="T17" s="47"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="58"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="57"/>
       <c r="Q18" s="32" t="s">
         <v>31</v>
       </c>
@@ -2528,13 +2528,13 @@
       <c r="T18" s="47"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="58"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="57"/>
       <c r="Q19" s="32" t="s">
         <v>84</v>
       </c>
@@ -2545,13 +2545,13 @@
       <c r="T19" s="47"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="58"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
       <c r="Q20" s="32" t="s">
         <v>85</v>
       </c>
@@ -2562,13 +2562,13 @@
       <c r="T20" s="47"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="58"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="57"/>
       <c r="Q21" s="32" t="s">
         <v>86</v>
       </c>
@@ -2579,13 +2579,13 @@
       <c r="T21" s="47"/>
     </row>
     <row r="22" spans="9:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="58"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="57"/>
       <c r="Q22" s="32" t="s">
         <v>87</v>
       </c>
@@ -2596,25 +2596,34 @@
       <c r="T22" s="47"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="58"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="57"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="I24" s="59"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="61"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2631,15 +2640,6 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2654,8 +2654,8 @@
   </sheetPr>
   <dimension ref="B1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="Q1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2691,13 +2691,13 @@
       <c r="G1" s="46"/>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
@@ -2710,74 +2710,74 @@
       </c>
     </row>
     <row r="7" spans="2:37" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="74"/>
     </row>
     <row r="8" spans="2:37" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="74" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
       <c r="T8" s="37"/>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
@@ -2802,98 +2802,98 @@
       <c r="AK8" s="81"/>
     </row>
     <row r="9" spans="2:37" ht="16" x14ac:dyDescent="0.2">
-      <c r="B9" s="68"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="82" t="s">
         <v>97</v>
       </c>
       <c r="D9" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="75" t="s">
+      <c r="E9" s="75"/>
+      <c r="F9" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75" t="s">
+      <c r="G9" s="65"/>
+      <c r="H9" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75" t="s">
+      <c r="I9" s="65"/>
+      <c r="J9" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75" t="s">
+      <c r="K9" s="65"/>
+      <c r="L9" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="M9" s="75"/>
-      <c r="N9" s="84" t="s">
+      <c r="M9" s="65"/>
+      <c r="N9" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="O9" s="85"/>
-      <c r="P9" s="84" t="s">
+      <c r="O9" s="67"/>
+      <c r="P9" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="75" t="s">
+      <c r="Q9" s="67"/>
+      <c r="R9" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="75"/>
-      <c r="T9" s="84" t="s">
+      <c r="S9" s="65"/>
+      <c r="T9" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="U9" s="85"/>
-      <c r="V9" s="84" t="s">
+      <c r="U9" s="67"/>
+      <c r="V9" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="W9" s="85"/>
-      <c r="X9" s="67" t="s">
+      <c r="W9" s="67"/>
+      <c r="X9" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="Y9" s="67" t="s">
+      <c r="Y9" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="Z9" s="65" t="s">
+      <c r="Z9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="AA9" s="65" t="s">
+      <c r="AA9" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="AB9" s="65" t="s">
+      <c r="AB9" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="AC9" s="65" t="s">
+      <c r="AC9" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="AD9" s="67" t="s">
+      <c r="AD9" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="AE9" s="63">
+      <c r="AE9" s="84">
         <v>0</v>
       </c>
-      <c r="AF9" s="63">
+      <c r="AF9" s="84">
         <v>1</v>
       </c>
-      <c r="AG9" s="63">
+      <c r="AG9" s="84">
         <v>2</v>
       </c>
-      <c r="AH9" s="63" t="s">
+      <c r="AH9" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="AI9" s="63" t="s">
+      <c r="AI9" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="AJ9" s="63" t="s">
+      <c r="AJ9" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="AK9" s="63" t="s">
+      <c r="AK9" s="84" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="68"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="83"/>
       <c r="D10" s="83"/>
-      <c r="E10" s="74"/>
+      <c r="E10" s="75"/>
       <c r="F10" s="11" t="s">
         <v>44</v>
       </c>
@@ -2948,20 +2948,20 @@
       <c r="W10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="67"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="85"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="85"/>
+      <c r="AH10" s="85"/>
+      <c r="AI10" s="85"/>
+      <c r="AJ10" s="85"/>
+      <c r="AK10" s="85"/>
     </row>
     <row r="11" spans="2:37" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
@@ -2971,7 +2971,7 @@
         <v>108</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>110</v>
@@ -3425,6 +3425,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="AE8:AK8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AB9:AB10"/>
@@ -3441,25 +3460,6 @@
     <mergeCell ref="E7:AK7"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:S8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="AE8:AK8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AG9:AG10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3473,8 +3473,8 @@
   </sheetPr>
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3507,37 +3507,37 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="90"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="95" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="118"/>
+      <c r="G5" s="97"/>
     </row>
     <row r="6" spans="2:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="117"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="42" t="s">
         <v>97</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="B7" s="19">
         <v>9</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="98" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3572,7 +3572,7 @@
       <c r="B8" s="19">
         <v>10</v>
       </c>
-      <c r="C8" s="120"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="4" t="s">
         <v>56</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="B9" s="19">
         <v>11</v>
       </c>
-      <c r="C9" s="120"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="4" t="s">
         <v>115</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="B10" s="19">
         <v>12</v>
       </c>
-      <c r="C10" s="120"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="4" t="s">
         <v>119</v>
       </c>
@@ -3626,7 +3626,7 @@
       <c r="B11" s="2">
         <v>13</v>
       </c>
-      <c r="C11" s="120"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="4" t="s">
         <v>123</v>
       </c>
@@ -3644,7 +3644,7 @@
       <c r="B12" s="19">
         <v>14</v>
       </c>
-      <c r="C12" s="120"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="4" t="s">
         <v>126</v>
       </c>
@@ -3662,7 +3662,7 @@
       <c r="B13" s="19">
         <v>15</v>
       </c>
-      <c r="C13" s="120"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="4" t="s">
         <v>129</v>
       </c>
@@ -3683,83 +3683,83 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:14" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90" t="s">
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="91"/>
-      <c r="H18" s="88" t="s">
+      <c r="G18" s="104"/>
+      <c r="H18" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="93" t="s">
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="N18" s="94"/>
+      <c r="N18" s="107"/>
     </row>
     <row r="19" spans="2:14" ht="88" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="99" t="s">
+      <c r="E19" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="102" t="s">
+      <c r="G19" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="103" t="s">
+      <c r="H19" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="97" t="s">
+      <c r="I19" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="97" t="s">
+      <c r="J19" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="105" t="s">
+      <c r="K19" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="107" t="s">
+      <c r="L19" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="M19" s="109" t="s">
+      <c r="M19" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="N19" s="86" t="s">
+      <c r="N19" s="93" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="96"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="87"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="100"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="24">
@@ -3804,14 +3804,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C7:C13"/>
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="F18:G18"/>
@@ -3828,6 +3820,14 @@
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="L19:L20"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C7:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3835,12 +3835,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4012,15 +4009,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4044,10 +4045,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>